--- a/static/2018/FeedbackLinks_2018.xlsx
+++ b/static/2018/FeedbackLinks_2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Melcher.it\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\azuresaturday2018muc\static\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59841FD7-E1C4-4443-8221-560BB89B24C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7D7640D-FCB5-40FC-A66F-926F1FA637E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,13 +772,13 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
@@ -1374,11 +1374,12 @@
     <hyperlink ref="F25" r:id="rId45" xr:uid="{26B9A98C-9096-45F2-B24C-202DAC1A6E41}"/>
     <hyperlink ref="F26" r:id="rId46" xr:uid="{DEB4D5C7-9F44-4E8F-B462-3079B93726BE}"/>
     <hyperlink ref="F27" r:id="rId47" xr:uid="{17EB4DBB-FCB2-4A9F-A270-A1FFA21A7497}"/>
+    <hyperlink ref="E4" r:id="rId48" xr:uid="{4706D628-FDC4-4940-983E-8555A7D455AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>
--- a/static/2018/FeedbackLinks_2018.xlsx
+++ b/static/2018/FeedbackLinks_2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\azuresaturday2018muc\static\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmelcher\Melcher.it\Azure Saturday 2018 - Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7D7640D-FCB5-40FC-A66F-926F1FA637E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="6_{6F23512B-D349-4F52-A943-43FD7705F431}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{602CCCEB-4735-46B9-827E-09F36F8B4FC9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>Time</t>
   </si>
@@ -117,12 +117,6 @@
     <t>@rinaahm</t>
   </si>
   <si>
-    <t>GDPR - Using Microsoft Azure in a compliante way</t>
-  </si>
-  <si>
-    <t>@Ra_Koellner</t>
-  </si>
-  <si>
     <t>@nigelFrank</t>
   </si>
   <si>
@@ -132,12 +126,6 @@
     <t>@th_p @tsjdevapps</t>
   </si>
   <si>
-    <t>IoT Real-Life Projects in Automotive &amp; Power Supply Industries</t>
-  </si>
-  <si>
-    <t>@theoliver</t>
-  </si>
-  <si>
     <t>Digitalization and Innovation - Why customers don't understand it?</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>Linux meets Azure IoT Hub</t>
   </si>
   <si>
-    <t>Kubernetes for .NET developers</t>
-  </si>
-  <si>
     <t>Let me introduce ALA!</t>
   </si>
   <si>
@@ -186,9 +171,6 @@
     <t>@JohnerStefan</t>
   </si>
   <si>
-    <t>@ShahidDev</t>
-  </si>
-  <si>
     <t>@stefanroth_net</t>
   </si>
   <si>
@@ -243,15 +225,9 @@
     <t xml:space="preserve">https://form.responster.com/CKyg28 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://form.responster.com/fbrtXk </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://form.responster.com/8sl73M </t>
   </si>
   <si>
-    <t xml:space="preserve">https://form.responster.com/c9eKYy </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://form.responster.com/5QXY4a </t>
   </si>
   <si>
@@ -312,9 +288,6 @@
     <t xml:space="preserve">https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https://form.responster.com/CKyg28 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https://form.responster.com/fbrtXk </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https://form.responster.com/8sl73M </t>
   </si>
   <si>
@@ -358,6 +331,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https://form.responster.com/2TZjpd  </t>
+  </si>
+  <si>
+    <t>How to find your way in the Automation Jungle</t>
+  </si>
+  <si>
+    <t>Security + DevOps + Azure = Awesomeness</t>
+  </si>
+  <si>
+    <t>Azure Networking Inside and Out</t>
+  </si>
+  <si>
+    <t>https://form.responster.com/c9eKYy</t>
+  </si>
+  <si>
+    <t>https://form.responster.com/fbrtXk</t>
+  </si>
+  <si>
+    <t>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https://form.responster.com/fbrtXk</t>
   </si>
 </sst>
 </file>
@@ -438,7 +429,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <numFmt numFmtId="164" formatCode="h:mm"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -771,14 +762,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
@@ -802,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,10 +826,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -849,16 +840,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -875,10 +866,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -889,16 +880,16 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -909,16 +900,16 @@
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,16 +920,16 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -949,16 +940,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -975,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1011,10 +1002,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,10 +1022,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1042,19 +1033,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1062,19 +1053,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1082,19 +1073,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1102,19 +1093,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1122,19 +1113,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,19 +1133,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1162,19 +1153,19 @@
         <v>0.625</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1182,19 +1173,19 @@
         <v>0.625</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1202,19 +1193,19 @@
         <v>0.625</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,19 +1213,19 @@
         <v>0.625</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1242,19 +1233,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1262,17 +1253,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1280,17 +1271,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1298,19 +1289,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1336,50 +1327,237 @@
     <hyperlink ref="E10" r:id="rId7" xr:uid="{C46E9039-D7E3-44F0-84FE-9137021E3B18}"/>
     <hyperlink ref="E12" r:id="rId8" xr:uid="{5E4E8A9C-350A-48FD-A344-058AEAC909C4}"/>
     <hyperlink ref="E13" r:id="rId9" xr:uid="{A8F340B3-EF8B-4B82-8768-73CD9A1E3302}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{9E8C2B10-6AAB-4998-A3A3-1006F205469C}"/>
-    <hyperlink ref="E15" r:id="rId11" xr:uid="{34620F17-4B21-4667-97A5-E0EA064A355E}"/>
-    <hyperlink ref="E16" r:id="rId12" xr:uid="{5D95E2D0-1F63-4995-91BC-2ECB3759D0AD}"/>
-    <hyperlink ref="E17" r:id="rId13" xr:uid="{616781D5-7C2D-4708-993B-4D1CB3F6A9C1}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{5B01564C-2D6A-4785-9D67-CED33A1E67F0}"/>
-    <hyperlink ref="E19" r:id="rId15" xr:uid="{95169D9B-9218-43CE-A259-C7D0F6F02920}"/>
-    <hyperlink ref="E20" r:id="rId16" xr:uid="{9EE04A29-8E61-4510-902B-3513DA9483E8}"/>
-    <hyperlink ref="E21" r:id="rId17" xr:uid="{6119123D-10C7-4291-9AC8-8452EF76EF6A}"/>
-    <hyperlink ref="E22" r:id="rId18" xr:uid="{9E61FDFA-FF86-426E-990B-86B662FB698C}"/>
-    <hyperlink ref="E23" r:id="rId19" xr:uid="{B07F0145-06D6-4CB4-B3A8-771EB364001F}"/>
-    <hyperlink ref="E24" r:id="rId20" xr:uid="{EEDFB1EE-9927-4786-B281-7A037C820B04}"/>
-    <hyperlink ref="E25" r:id="rId21" xr:uid="{4F24E0E9-0E02-44AE-B8C6-CA9772A0B2AE}"/>
-    <hyperlink ref="E26" r:id="rId22" xr:uid="{DF8C7F95-E7A5-4F06-AD01-8DEC637832BF}"/>
-    <hyperlink ref="E27" r:id="rId23" xr:uid="{72998356-D790-4E65-9F03-10A187A8FF25}"/>
-    <hyperlink ref="F3" r:id="rId24" xr:uid="{6D420254-C7F6-41F8-96B4-C8709FF966B2}"/>
-    <hyperlink ref="F4" r:id="rId25" xr:uid="{FF26B1CC-8B75-4E96-971B-E9503BA9B06D}"/>
-    <hyperlink ref="F5" r:id="rId26" xr:uid="{4F2C9717-C13E-40A0-9663-9C45B18253E8}"/>
-    <hyperlink ref="F6" r:id="rId27" xr:uid="{26B57637-309D-4E94-9AE2-8C75A274E6CF}"/>
-    <hyperlink ref="F7" r:id="rId28" xr:uid="{1BAA46BB-C0A8-4E8C-8A3B-895079E05F9B}"/>
-    <hyperlink ref="F8" r:id="rId29" xr:uid="{C3B13D82-9622-49A7-8FEA-7FAE8242D554}"/>
-    <hyperlink ref="F9" r:id="rId30" xr:uid="{6124FEB2-466B-4410-AFF8-EE25D298C58B}"/>
-    <hyperlink ref="F10" r:id="rId31" xr:uid="{10006ED4-D2CD-46A1-B4C2-DD01762EF644}"/>
-    <hyperlink ref="F12" r:id="rId32" xr:uid="{8D0AD7F9-8473-4EC2-9B8E-9DC7DED4563C}"/>
-    <hyperlink ref="F13" r:id="rId33" xr:uid="{A6C8D87B-F2AF-4A1B-AD1C-C8E756F6D4B6}"/>
-    <hyperlink ref="F14" r:id="rId34" xr:uid="{E7BD5EFF-4D46-4DEB-91A8-4C86F66C7A1D}"/>
-    <hyperlink ref="F15" r:id="rId35" xr:uid="{1A74C24E-E029-4294-9F93-264653FBE034}"/>
-    <hyperlink ref="F16" r:id="rId36" xr:uid="{5D630F87-99CD-4375-A17C-1172727E4F0A}"/>
-    <hyperlink ref="F17" r:id="rId37" xr:uid="{20A6D442-7557-4A66-9E5A-5753D54B9545}"/>
-    <hyperlink ref="F18" r:id="rId38" xr:uid="{550C493C-E462-48F2-97EC-AE477AD921A0}"/>
-    <hyperlink ref="F19" r:id="rId39" xr:uid="{741D8E15-37CE-4B22-8B44-C78BC0F65A9F}"/>
-    <hyperlink ref="F20" r:id="rId40" xr:uid="{E35D35E3-41F2-40F0-AB4E-4ED7587E86DD}"/>
-    <hyperlink ref="F21" r:id="rId41" xr:uid="{A3D1A2BF-924C-4AEC-A5C9-DEC40DF49BAA}"/>
-    <hyperlink ref="F22" r:id="rId42" xr:uid="{0F10F32D-E4A8-47BF-A26F-F9191CE99F0C}"/>
-    <hyperlink ref="F23" r:id="rId43" xr:uid="{D633E289-0635-4FC6-A904-6A11551A29E0}"/>
-    <hyperlink ref="F24" r:id="rId44" xr:uid="{012A5CCF-0E2A-4000-BAD4-912D463947E0}"/>
-    <hyperlink ref="F25" r:id="rId45" xr:uid="{26B9A98C-9096-45F2-B24C-202DAC1A6E41}"/>
-    <hyperlink ref="F26" r:id="rId46" xr:uid="{DEB4D5C7-9F44-4E8F-B462-3079B93726BE}"/>
-    <hyperlink ref="F27" r:id="rId47" xr:uid="{17EB4DBB-FCB2-4A9F-A270-A1FFA21A7497}"/>
-    <hyperlink ref="E4" r:id="rId48" xr:uid="{4706D628-FDC4-4940-983E-8555A7D455AD}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{34620F17-4B21-4667-97A5-E0EA064A355E}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{616781D5-7C2D-4708-993B-4D1CB3F6A9C1}"/>
+    <hyperlink ref="E18" r:id="rId12" xr:uid="{5B01564C-2D6A-4785-9D67-CED33A1E67F0}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{95169D9B-9218-43CE-A259-C7D0F6F02920}"/>
+    <hyperlink ref="E20" r:id="rId14" xr:uid="{9EE04A29-8E61-4510-902B-3513DA9483E8}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{6119123D-10C7-4291-9AC8-8452EF76EF6A}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{9E61FDFA-FF86-426E-990B-86B662FB698C}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{B07F0145-06D6-4CB4-B3A8-771EB364001F}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{EEDFB1EE-9927-4786-B281-7A037C820B04}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{4F24E0E9-0E02-44AE-B8C6-CA9772A0B2AE}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{DF8C7F95-E7A5-4F06-AD01-8DEC637832BF}"/>
+    <hyperlink ref="F3" r:id="rId21" xr:uid="{6D420254-C7F6-41F8-96B4-C8709FF966B2}"/>
+    <hyperlink ref="F4" r:id="rId22" xr:uid="{FF26B1CC-8B75-4E96-971B-E9503BA9B06D}"/>
+    <hyperlink ref="F5" r:id="rId23" xr:uid="{4F2C9717-C13E-40A0-9663-9C45B18253E8}"/>
+    <hyperlink ref="F6" r:id="rId24" xr:uid="{26B57637-309D-4E94-9AE2-8C75A274E6CF}"/>
+    <hyperlink ref="F7" r:id="rId25" xr:uid="{1BAA46BB-C0A8-4E8C-8A3B-895079E05F9B}"/>
+    <hyperlink ref="F8" r:id="rId26" xr:uid="{C3B13D82-9622-49A7-8FEA-7FAE8242D554}"/>
+    <hyperlink ref="F9" r:id="rId27" xr:uid="{6124FEB2-466B-4410-AFF8-EE25D298C58B}"/>
+    <hyperlink ref="F10" r:id="rId28" xr:uid="{10006ED4-D2CD-46A1-B4C2-DD01762EF644}"/>
+    <hyperlink ref="F12" r:id="rId29" xr:uid="{8D0AD7F9-8473-4EC2-9B8E-9DC7DED4563C}"/>
+    <hyperlink ref="F13" r:id="rId30" xr:uid="{A6C8D87B-F2AF-4A1B-AD1C-C8E756F6D4B6}"/>
+    <hyperlink ref="F15" r:id="rId31" xr:uid="{1A74C24E-E029-4294-9F93-264653FBE034}"/>
+    <hyperlink ref="F16" r:id="rId32" xr:uid="{5D630F87-99CD-4375-A17C-1172727E4F0A}"/>
+    <hyperlink ref="F17" r:id="rId33" xr:uid="{20A6D442-7557-4A66-9E5A-5753D54B9545}"/>
+    <hyperlink ref="F18" r:id="rId34" xr:uid="{550C493C-E462-48F2-97EC-AE477AD921A0}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{741D8E15-37CE-4B22-8B44-C78BC0F65A9F}"/>
+    <hyperlink ref="F20" r:id="rId36" xr:uid="{E35D35E3-41F2-40F0-AB4E-4ED7587E86DD}"/>
+    <hyperlink ref="F21" r:id="rId37" xr:uid="{A3D1A2BF-924C-4AEC-A5C9-DEC40DF49BAA}"/>
+    <hyperlink ref="F22" r:id="rId38" xr:uid="{0F10F32D-E4A8-47BF-A26F-F9191CE99F0C}"/>
+    <hyperlink ref="F23" r:id="rId39" xr:uid="{D633E289-0635-4FC6-A904-6A11551A29E0}"/>
+    <hyperlink ref="F24" r:id="rId40" xr:uid="{012A5CCF-0E2A-4000-BAD4-912D463947E0}"/>
+    <hyperlink ref="F25" r:id="rId41" xr:uid="{26B9A98C-9096-45F2-B24C-202DAC1A6E41}"/>
+    <hyperlink ref="F26" r:id="rId42" xr:uid="{DEB4D5C7-9F44-4E8F-B462-3079B93726BE}"/>
+    <hyperlink ref="E14" r:id="rId43" xr:uid="{804BEED2-4865-418C-914A-634FCE342555}"/>
+    <hyperlink ref="F14" r:id="rId44" xr:uid="{5471252A-ACE7-4C00-AA37-32A7C77B2891}"/>
+    <hyperlink ref="F27" r:id="rId45" xr:uid="{EE037D08-50E9-41E2-AFCE-6DD974921590}"/>
+    <hyperlink ref="E27" r:id="rId46" xr:uid="{24D2D813-15A7-4293-93DE-90385A6EE6B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
   <tableParts count="1">
-    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B8D30380E1BA494994F8F5BFE55E196D" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="752d251b71189fdebdf69ba2268079fe">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2657e8b-20e9-4595-b2cd-bce399bff248" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d7021dbc6385fa1d2f5682ea261f651" ns2:_="">
+    <xsd:import namespace="d2657e8b-20e9-4595-b2cd-bce399bff248"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2657e8b-20e9-4595-b2cd-bce399bff248" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DAF8B2D-48AA-434B-B6CC-50B33D0BDBC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d2657e8b-20e9-4595-b2cd-bce399bff248"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F512BBF-FFC7-438E-A887-DA0F7ACA3EAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AC20955-5533-48DA-BC74-4167057F61C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2657e8b-20e9-4595-b2cd-bce399bff248"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>